--- a/上課文件/陳紀彰/0919正規化作業.xlsx
+++ b/上課文件/陳紀彰/0919正規化作業.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\上課文件\陳紀彰\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\定康流五星策略\python_exercise\上課文件\陳紀彰\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD6249-068C-454A-AF91-A17E83A55DB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC7BB7-47C0-4CE3-A915-3B1BCEFE6F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="15570" windowHeight="7110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始資料" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t>訂單序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,194 @@
   </si>
   <si>
     <t>DV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下單細節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶表(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶ID(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燦坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家樂福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大潤發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單序號(PK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂貨日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送貨日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶ID(FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品代號(pk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>產品名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	DVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	數位電視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無線電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">電漿電視	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫存表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品代號(pk,Fk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單明細表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明細ID(pk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單序號(FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品代號(FK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂購數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,16 +446,30 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,13 +492,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +525,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -333,9 +559,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,9 +599,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,26 +634,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,26 +669,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -871,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1242,14 +1434,571 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>37591</v>
+      </c>
+      <c r="C16" s="3">
+        <v>37600</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>37591</v>
+      </c>
+      <c r="C17" s="3">
+        <v>37600</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>37591</v>
+      </c>
+      <c r="C18" s="3">
+        <v>37600</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37591</v>
+      </c>
+      <c r="C19" s="3">
+        <v>37600</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>37593</v>
+      </c>
+      <c r="C20" s="3">
+        <v>37603</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>37593</v>
+      </c>
+      <c r="C21" s="3">
+        <v>37603</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>37593</v>
+      </c>
+      <c r="C22" s="3">
+        <v>37603</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>37596</v>
+      </c>
+      <c r="C23" s="3">
+        <v>37606</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>37596</v>
+      </c>
+      <c r="C24" s="3">
+        <v>37606</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>37597</v>
+      </c>
+      <c r="C25" s="3">
+        <v>37607</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4">
+        <v>36000</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="4">
+        <v>36000</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D50" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="4">
+        <v>200000</v>
+      </c>
+      <c r="D51" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A41:D41"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1257,12 +2006,441 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>37591</v>
+      </c>
+      <c r="C10" s="10">
+        <v>37600</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10">
+        <v>37591</v>
+      </c>
+      <c r="C11" s="10">
+        <v>37600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10">
+        <v>37593</v>
+      </c>
+      <c r="C12" s="10">
+        <v>37603</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10">
+        <v>37593</v>
+      </c>
+      <c r="C13" s="10">
+        <v>37606</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10">
+        <v>37597</v>
+      </c>
+      <c r="C14" s="10">
+        <v>37607</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
